--- a/test/402_Amount Adjustment.xlsx
+++ b/test/402_Amount Adjustment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utagarwal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EFE8A-EA32-4857-9102-55DC4945E65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616EF374-A70D-4F23-85BA-B1D8F5419A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{8D43B8C0-6C95-4422-891B-B1187F3CF81D}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9">
-        <v>306530</v>
+        <v>306350</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
